--- a/P3/Results/Data/Results/Without light(inreport)/Reuslts.xlsx
+++ b/P3/Results/Data/Results/Without light(inreport)/Reuslts.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jens1\Documents\GitHub\Robotteknologi-3.-semester\P3\Results\Data\Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jens1\Documents\GitHub\Robotteknologi-3.-semester\P3\Results\Data\Results\Without light(inreport)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41DAFFB0-C8E5-497D-9418-046EC9D24C19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1E0E89D-C653-411C-AFF2-E4938133BF90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="13590" yWindow="2680" windowWidth="19200" windowHeight="6970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All graphs" sheetId="18" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -784,16 +784,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -14304,170 +14300,6 @@
           <cell r="I1" t="str">
             <v>AG Enhanced</v>
           </cell>
-          <cell r="K1" t="str">
-            <v>Total correct (%)</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2">
-            <v>20</v>
-          </cell>
-          <cell r="B2">
-            <v>9.7999999999999989</v>
-          </cell>
-          <cell r="C2">
-            <v>13.57</v>
-          </cell>
-          <cell r="D2">
-            <v>5.8775000000000004</v>
-          </cell>
-          <cell r="E2">
-            <v>4.76</v>
-          </cell>
-          <cell r="G2">
-            <v>8.6199999999999992</v>
-          </cell>
-          <cell r="H2">
-            <v>5.1775000000000002</v>
-          </cell>
-          <cell r="I2">
-            <v>16.05</v>
-          </cell>
-          <cell r="K2">
-            <v>66.666666666666657</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>30</v>
-          </cell>
-          <cell r="B3">
-            <v>10.416</v>
-          </cell>
-          <cell r="C3">
-            <v>13.556999999999999</v>
-          </cell>
-          <cell r="D3">
-            <v>-2.5170000000000003</v>
-          </cell>
-          <cell r="E3">
-            <v>7.3719999999999981</v>
-          </cell>
-          <cell r="G3">
-            <v>8.620000000000001</v>
-          </cell>
-          <cell r="H3">
-            <v>5.7620000000000005</v>
-          </cell>
-          <cell r="I3">
-            <v>14.113</v>
-          </cell>
-          <cell r="K3">
-            <v>76.923076923076934</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>40</v>
-          </cell>
-          <cell r="B4">
-            <v>11.962</v>
-          </cell>
-          <cell r="C4">
-            <v>13.756</v>
-          </cell>
-          <cell r="D4">
-            <v>-19.758000000000003</v>
-          </cell>
-          <cell r="E4">
-            <v>7.8599999999999994</v>
-          </cell>
-          <cell r="G4">
-            <v>8.6199999999999992</v>
-          </cell>
-          <cell r="H4">
-            <v>6.7060000000000004</v>
-          </cell>
-          <cell r="I4">
-            <v>12.428000000000001</v>
-          </cell>
-          <cell r="K4">
-            <v>83.333333333333343</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>80</v>
-          </cell>
-          <cell r="B5">
-            <v>10.186</v>
-          </cell>
-          <cell r="C5">
-            <v>11.809999999999999</v>
-          </cell>
-          <cell r="D5">
-            <v>-39.384</v>
-          </cell>
-          <cell r="E5">
-            <v>2.0919999999999996</v>
-          </cell>
-          <cell r="G5">
-            <v>8.6199999999999992</v>
-          </cell>
-          <cell r="H5">
-            <v>4.01</v>
-          </cell>
-          <cell r="I5">
-            <v>21.216000000000001</v>
-          </cell>
-          <cell r="K5">
-            <v>62.5</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>120</v>
-          </cell>
-          <cell r="B6">
-            <v>9.6300000000000008</v>
-          </cell>
-          <cell r="C6">
-            <v>9.7899999999999991</v>
-          </cell>
-          <cell r="D6">
-            <v>-38.229999999999997</v>
-          </cell>
-          <cell r="E6">
-            <v>15.25</v>
-          </cell>
-          <cell r="G6">
-            <v>8.6199999999999992</v>
-          </cell>
-          <cell r="H6">
-            <v>3.32</v>
-          </cell>
-          <cell r="I6">
-            <v>6.94</v>
-          </cell>
-          <cell r="K6">
-            <v>14.285714285714285</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>160</v>
-          </cell>
-          <cell r="K7">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>595</v>
-          </cell>
-          <cell r="K8">
-            <v>0</v>
-          </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
@@ -14769,47 +14601,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1789AD80-4494-452C-877A-2E537E6BF26A}">
   <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="104" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:L11"/>
+    <sheetView tabSelected="1" zoomScale="67" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>202</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" t="s">
         <v>202</v>
       </c>
       <c r="N1" t="s">
@@ -14817,50 +14649,50 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s">
         <v>200</v>
       </c>
-      <c r="B2" s="3" t="str" cm="1">
+      <c r="B2" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B2" ca="1">IFERROR(INDIRECT("'" &amp; $A2 &amp; "'!A" &amp; COUNTA(INDIRECT("'" &amp; $A2 &amp; "'!A:A"))),"")</f>
         <v>12 / 13</v>
       </c>
-      <c r="C2" s="4" cm="1">
+      <c r="C2" s="1" cm="1">
         <f t="array" aca="1" ref="C2" ca="1">IFERROR(INDIRECT("'" &amp; $A2 &amp; "'!B" &amp; COUNTA(INDIRECT("'" &amp; $A2 &amp; "'!A:A"))),"")</f>
         <v>10.565</v>
       </c>
-      <c r="D2" s="4" cm="1">
+      <c r="D2" s="1" cm="1">
         <f t="array" aca="1" ref="D2" ca="1">IFERROR(INDIRECT("'" &amp; $A2 &amp; "'!C" &amp; COUNTA(INDIRECT("'" &amp; $A2 &amp; "'!A:A"))),"")</f>
         <v>14.251666666666667</v>
       </c>
-      <c r="E2" s="4" cm="1">
+      <c r="E2" s="1" cm="1">
         <f t="array" aca="1" ref="E2" ca="1">IFERROR(INDIRECT("'" &amp; $A2 &amp; "'!D" &amp; COUNTA(INDIRECT("'" &amp; $A2 &amp; "'!A:A"))),"")</f>
         <v>-37.068333333333335</v>
       </c>
-      <c r="F2" s="4" cm="1">
+      <c r="F2" s="1" cm="1">
         <f t="array" aca="1" ref="F2" ca="1">IFERROR(INDIRECT("'" &amp; $A2 &amp; "'!E" &amp; COUNTA(INDIRECT("'" &amp; $A2 &amp; "'!A:A"))),"")</f>
         <v>-9.3233333333333324</v>
       </c>
-      <c r="G2" s="4" cm="1">
+      <c r="G2" s="1" cm="1">
         <f t="array" aca="1" ref="G2" ca="1">IFERROR(INDIRECT("'" &amp; $A2 &amp; "'!F" &amp; COUNTA(INDIRECT("'" &amp; $A2 &amp; "'!A:A"))),"")</f>
         <v>5.6024999999999991</v>
       </c>
-      <c r="H2" s="4" cm="1">
+      <c r="H2" s="1" cm="1">
         <f t="array" aca="1" ref="H2" ca="1">IFERROR(INDIRECT("'" &amp; $A2 &amp; "'!G" &amp; COUNTA(INDIRECT("'" &amp; $A2 &amp; "'!A:A"))),"")</f>
         <v>8.620000000000001</v>
       </c>
-      <c r="I2" s="4" cm="1">
+      <c r="I2" s="1" cm="1">
         <f t="array" aca="1" ref="I2" ca="1">IFERROR(INDIRECT("'" &amp; $A2 &amp; "'!H" &amp; COUNTA(INDIRECT("'" &amp; $A2 &amp; "'!A:A"))),"")</f>
         <v>4.0433333333333339</v>
       </c>
-      <c r="J2" s="4" cm="1">
+      <c r="J2" s="1" cm="1">
         <f t="array" aca="1" ref="J2" ca="1">IFERROR(INDIRECT("'" &amp; $A2 &amp; "'!I" &amp; COUNTA(INDIRECT("'" &amp; $A2 &amp; "'!A:A"))),"")</f>
         <v>17.604166666666664</v>
       </c>
-      <c r="K2" s="4" cm="1">
+      <c r="K2" s="1" cm="1">
         <f t="array" aca="1" ref="K2" ca="1">IFERROR(INDIRECT("'" &amp; $A2 &amp; "'!J" &amp; COUNTA(INDIRECT("'" &amp; $A2 &amp; "'!A:A"))),"")</f>
         <v>6.9291666666666671</v>
       </c>
-      <c r="L2" s="2" cm="1">
+      <c r="L2" cm="1">
         <f t="array" aca="1" ref="L2:L18" ca="1">Eval</f>
         <v>92.307692307692307</v>
       </c>
@@ -14870,103 +14702,103 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="A3" t="s">
         <v>201</v>
       </c>
-      <c r="B3" s="3" t="str" cm="1">
+      <c r="B3" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B3" ca="1">IFERROR(INDIRECT("'" &amp; $A3 &amp; "'!A" &amp; COUNTA(INDIRECT("'" &amp; $A3 &amp; "'!A:A"))),"")</f>
         <v>0 / 14</v>
       </c>
-      <c r="C3" s="4" t="str" cm="1">
+      <c r="C3" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="C3" ca="1">IFERROR(INDIRECT("'" &amp; $A3 &amp; "'!B" &amp; COUNTA(INDIRECT("'" &amp; $A3 &amp; "'!A:A"))),"")</f>
         <v/>
       </c>
-      <c r="D3" s="4" t="str" cm="1">
+      <c r="D3" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="D3" ca="1">IFERROR(INDIRECT("'" &amp; $A3 &amp; "'!C" &amp; COUNTA(INDIRECT("'" &amp; $A3 &amp; "'!A:A"))),"")</f>
         <v/>
       </c>
-      <c r="E3" s="4" t="str" cm="1">
+      <c r="E3" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="E3" ca="1">IFERROR(INDIRECT("'" &amp; $A3 &amp; "'!D" &amp; COUNTA(INDIRECT("'" &amp; $A3 &amp; "'!A:A"))),"")</f>
         <v/>
       </c>
-      <c r="F3" s="4" t="str" cm="1">
+      <c r="F3" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="F3" ca="1">IFERROR(INDIRECT("'" &amp; $A3 &amp; "'!E" &amp; COUNTA(INDIRECT("'" &amp; $A3 &amp; "'!A:A"))),"")</f>
         <v/>
       </c>
-      <c r="G3" s="4" t="str" cm="1">
+      <c r="G3" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="G3" ca="1">IFERROR(INDIRECT("'" &amp; $A3 &amp; "'!F" &amp; COUNTA(INDIRECT("'" &amp; $A3 &amp; "'!A:A"))),"")</f>
         <v/>
       </c>
-      <c r="H3" s="4" t="str" cm="1">
+      <c r="H3" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H3" ca="1">IFERROR(INDIRECT("'" &amp; $A3 &amp; "'!G" &amp; COUNTA(INDIRECT("'" &amp; $A3 &amp; "'!A:A"))),"")</f>
         <v/>
       </c>
-      <c r="I3" s="4" t="str" cm="1">
+      <c r="I3" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I3" ca="1">IFERROR(INDIRECT("'" &amp; $A3 &amp; "'!H" &amp; COUNTA(INDIRECT("'" &amp; $A3 &amp; "'!A:A"))),"")</f>
         <v/>
       </c>
-      <c r="J3" s="4" t="str" cm="1">
+      <c r="J3" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="J3" ca="1">IFERROR(INDIRECT("'" &amp; $A3 &amp; "'!I" &amp; COUNTA(INDIRECT("'" &amp; $A3 &amp; "'!A:A"))),"")</f>
         <v/>
       </c>
-      <c r="K3" s="4" t="str" cm="1">
+      <c r="K3" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K3" ca="1">IFERROR(INDIRECT("'" &amp; $A3 &amp; "'!J" &amp; COUNTA(INDIRECT("'" &amp; $A3 &amp; "'!A:A"))),"")</f>
         <v/>
       </c>
-      <c r="L3" s="2">
+      <c r="L3">
         <f ca="1"/>
         <v>0</v>
       </c>
       <c r="N3" t="str">
-        <f t="shared" ref="M3:N4" si="0">TRIM(RIGHT($A3, LEN($A3) - FIND("Clay", $A3) - 3))</f>
+        <f t="shared" ref="N3:N4" si="0">TRIM(RIGHT($A3, LEN($A3) - FIND("Clay", $A3) - 3))</f>
         <v>1g</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+      <c r="A4" t="s">
         <v>203</v>
       </c>
-      <c r="B4" s="3" t="str" cm="1">
+      <c r="B4" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B4" ca="1">IFERROR(INDIRECT("'" &amp; $A4 &amp; "'!A" &amp; COUNTA(INDIRECT("'" &amp; $A4 &amp; "'!A:A"))),"")</f>
         <v>0 / 7</v>
       </c>
-      <c r="C4" s="4" t="str" cm="1">
+      <c r="C4" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="C4" ca="1">IFERROR(INDIRECT("'" &amp; $A4 &amp; "'!B" &amp; COUNTA(INDIRECT("'" &amp; $A4 &amp; "'!A:A"))),"")</f>
         <v/>
       </c>
-      <c r="D4" s="4" t="str" cm="1">
+      <c r="D4" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="D4" ca="1">IFERROR(INDIRECT("'" &amp; $A4 &amp; "'!C" &amp; COUNTA(INDIRECT("'" &amp; $A4 &amp; "'!A:A"))),"")</f>
         <v/>
       </c>
-      <c r="E4" s="4" t="str" cm="1">
+      <c r="E4" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="E4" ca="1">IFERROR(INDIRECT("'" &amp; $A4 &amp; "'!D" &amp; COUNTA(INDIRECT("'" &amp; $A4 &amp; "'!A:A"))),"")</f>
         <v/>
       </c>
-      <c r="F4" s="4" t="str" cm="1">
+      <c r="F4" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="F4" ca="1">IFERROR(INDIRECT("'" &amp; $A4 &amp; "'!E" &amp; COUNTA(INDIRECT("'" &amp; $A4 &amp; "'!A:A"))),"")</f>
         <v/>
       </c>
-      <c r="G4" s="4" t="str" cm="1">
+      <c r="G4" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="G4" ca="1">IFERROR(INDIRECT("'" &amp; $A4 &amp; "'!F" &amp; COUNTA(INDIRECT("'" &amp; $A4 &amp; "'!A:A"))),"")</f>
         <v/>
       </c>
-      <c r="H4" s="4" t="str" cm="1">
+      <c r="H4" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H4" ca="1">IFERROR(INDIRECT("'" &amp; $A4 &amp; "'!G" &amp; COUNTA(INDIRECT("'" &amp; $A4 &amp; "'!A:A"))),"")</f>
         <v/>
       </c>
-      <c r="I4" s="4" t="str" cm="1">
+      <c r="I4" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I4" ca="1">IFERROR(INDIRECT("'" &amp; $A4 &amp; "'!H" &amp; COUNTA(INDIRECT("'" &amp; $A4 &amp; "'!A:A"))),"")</f>
         <v/>
       </c>
-      <c r="J4" s="4" t="str" cm="1">
+      <c r="J4" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="J4" ca="1">IFERROR(INDIRECT("'" &amp; $A4 &amp; "'!I" &amp; COUNTA(INDIRECT("'" &amp; $A4 &amp; "'!A:A"))),"")</f>
         <v/>
       </c>
-      <c r="K4" s="4" t="str" cm="1">
+      <c r="K4" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K4" ca="1">IFERROR(INDIRECT("'" &amp; $A4 &amp; "'!J" &amp; COUNTA(INDIRECT("'" &amp; $A4 &amp; "'!A:A"))),"")</f>
         <v/>
       </c>
-      <c r="L4" s="2">
+      <c r="L4">
         <f ca="1"/>
         <v>0</v>
       </c>
@@ -14976,50 +14808,50 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+      <c r="A5" t="s">
         <v>204</v>
       </c>
-      <c r="B5" s="3" t="str" cm="1">
+      <c r="B5" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B5" ca="1">IFERROR(INDIRECT("'" &amp; $A5 &amp; "'!A" &amp; COUNTA(INDIRECT("'" &amp; $A5 &amp; "'!A:A"))),"")</f>
         <v>11 / 14</v>
       </c>
-      <c r="C5" s="4" cm="1">
+      <c r="C5" s="1" cm="1">
         <f t="array" aca="1" ref="C5" ca="1">IFERROR(INDIRECT("'" &amp; $A5 &amp; "'!B" &amp; COUNTA(INDIRECT("'" &amp; $A5 &amp; "'!A:A"))),"")</f>
         <v>11.647272727272728</v>
       </c>
-      <c r="D5" s="4" cm="1">
+      <c r="D5" s="1" cm="1">
         <f t="array" aca="1" ref="D5" ca="1">IFERROR(INDIRECT("'" &amp; $A5 &amp; "'!C" &amp; COUNTA(INDIRECT("'" &amp; $A5 &amp; "'!A:A"))),"")</f>
         <v>13.964545454545453</v>
       </c>
-      <c r="E5" s="4" cm="1">
+      <c r="E5" s="1" cm="1">
         <f t="array" aca="1" ref="E5" ca="1">IFERROR(INDIRECT("'" &amp; $A5 &amp; "'!D" &amp; COUNTA(INDIRECT("'" &amp; $A5 &amp; "'!A:A"))),"")</f>
         <v>-22.34090909090909</v>
       </c>
-      <c r="F5" s="4" cm="1">
+      <c r="F5" s="1" cm="1">
         <f t="array" aca="1" ref="F5" ca="1">IFERROR(INDIRECT("'" &amp; $A5 &amp; "'!E" &amp; COUNTA(INDIRECT("'" &amp; $A5 &amp; "'!A:A"))),"")</f>
         <v>-1.4345454545454539</v>
       </c>
-      <c r="G5" s="4" cm="1">
+      <c r="G5" s="1" cm="1">
         <f t="array" aca="1" ref="G5" ca="1">IFERROR(INDIRECT("'" &amp; $A5 &amp; "'!F" &amp; COUNTA(INDIRECT("'" &amp; $A5 &amp; "'!A:A"))),"")</f>
         <v>7.7581818181818187</v>
       </c>
-      <c r="H5" s="4" cm="1">
+      <c r="H5" s="1" cm="1">
         <f t="array" aca="1" ref="H5" ca="1">IFERROR(INDIRECT("'" &amp; $A5 &amp; "'!G" &amp; COUNTA(INDIRECT("'" &amp; $A5 &amp; "'!A:A"))),"")</f>
         <v>8.620000000000001</v>
       </c>
-      <c r="I5" s="4" cm="1">
+      <c r="I5" s="1" cm="1">
         <f t="array" aca="1" ref="I5" ca="1">IFERROR(INDIRECT("'" &amp; $A5 &amp; "'!H" &amp; COUNTA(INDIRECT("'" &amp; $A5 &amp; "'!A:A"))),"")</f>
         <v>8.5554545454545465</v>
       </c>
-      <c r="J5" s="4" cm="1">
+      <c r="J5" s="1" cm="1">
         <f t="array" aca="1" ref="J5" ca="1">IFERROR(INDIRECT("'" &amp; $A5 &amp; "'!I" &amp; COUNTA(INDIRECT("'" &amp; $A5 &amp; "'!A:A"))),"")</f>
         <v>17.347272727272728</v>
       </c>
-      <c r="K5" s="4" cm="1">
+      <c r="K5" s="1" cm="1">
         <f t="array" aca="1" ref="K5" ca="1">IFERROR(INDIRECT("'" &amp; $A5 &amp; "'!J" &amp; COUNTA(INDIRECT("'" &amp; $A5 &amp; "'!A:A"))),"")</f>
         <v>10.063636363636361</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5">
         <f ca="1"/>
         <v>78.571428571428569</v>
       </c>
@@ -15029,103 +14861,103 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+      <c r="A6" t="s">
         <v>205</v>
       </c>
-      <c r="B6" s="3" t="str" cm="1">
+      <c r="B6" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B6" ca="1">IFERROR(INDIRECT("'" &amp; $A6 &amp; "'!A" &amp; COUNTA(INDIRECT("'" &amp; $A6 &amp; "'!A:A"))),"")</f>
         <v>13 / 14</v>
       </c>
-      <c r="C6" s="4" cm="1">
+      <c r="C6" s="1" cm="1">
         <f t="array" aca="1" ref="C6" ca="1">IFERROR(INDIRECT("'" &amp; $A6 &amp; "'!B" &amp; COUNTA(INDIRECT("'" &amp; $A6 &amp; "'!A:A"))),"")</f>
         <v>10.553076923076922</v>
       </c>
-      <c r="D6" s="4" cm="1">
+      <c r="D6" s="1" cm="1">
         <f t="array" aca="1" ref="D6" ca="1">IFERROR(INDIRECT("'" &amp; $A6 &amp; "'!C" &amp; COUNTA(INDIRECT("'" &amp; $A6 &amp; "'!A:A"))),"")</f>
         <v>13.965384615384615</v>
       </c>
-      <c r="E6" s="4" cm="1">
+      <c r="E6" s="1" cm="1">
         <f t="array" aca="1" ref="E6" ca="1">IFERROR(INDIRECT("'" &amp; $A6 &amp; "'!D" &amp; COUNTA(INDIRECT("'" &amp; $A6 &amp; "'!A:A"))),"")</f>
         <v>-25.009230769230776</v>
       </c>
-      <c r="F6" s="4" cm="1">
+      <c r="F6" s="1" cm="1">
         <f t="array" aca="1" ref="F6" ca="1">IFERROR(INDIRECT("'" &amp; $A6 &amp; "'!E" &amp; COUNTA(INDIRECT("'" &amp; $A6 &amp; "'!A:A"))),"")</f>
         <v>-2.2553846153846151</v>
       </c>
-      <c r="G6" s="4" cm="1">
+      <c r="G6" s="1" cm="1">
         <f t="array" aca="1" ref="G6" ca="1">IFERROR(INDIRECT("'" &amp; $A6 &amp; "'!F" &amp; COUNTA(INDIRECT("'" &amp; $A6 &amp; "'!A:A"))),"")</f>
         <v>10.514615384615384</v>
       </c>
-      <c r="H6" s="4" cm="1">
+      <c r="H6" s="1" cm="1">
         <f t="array" aca="1" ref="H6" ca="1">IFERROR(INDIRECT("'" &amp; $A6 &amp; "'!G" &amp; COUNTA(INDIRECT("'" &amp; $A6 &amp; "'!A:A"))),"")</f>
         <v>8.620000000000001</v>
       </c>
-      <c r="I6" s="4" cm="1">
+      <c r="I6" s="1" cm="1">
         <f t="array" aca="1" ref="I6" ca="1">IFERROR(INDIRECT("'" &amp; $A6 &amp; "'!H" &amp; COUNTA(INDIRECT("'" &amp; $A6 &amp; "'!A:A"))),"")</f>
         <v>6.3353846153846138</v>
       </c>
-      <c r="J6" s="4" cm="1">
+      <c r="J6" s="1" cm="1">
         <f t="array" aca="1" ref="J6" ca="1">IFERROR(INDIRECT("'" &amp; $A6 &amp; "'!I" &amp; COUNTA(INDIRECT("'" &amp; $A6 &amp; "'!A:A"))),"")</f>
         <v>17.077692307692306</v>
       </c>
-      <c r="K6" s="4" cm="1">
+      <c r="K6" s="1" cm="1">
         <f t="array" aca="1" ref="K6" ca="1">IFERROR(INDIRECT("'" &amp; $A6 &amp; "'!J" &amp; COUNTA(INDIRECT("'" &amp; $A6 &amp; "'!A:A"))),"")</f>
         <v>8.4869230769230768</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6">
         <f ca="1"/>
         <v>92.857142857142861</v>
       </c>
       <c r="N6" t="str">
-        <f t="shared" ref="M6:N11" si="1">TRIM(RIGHT($A6, LEN($A6) - FIND("Gypsum", $A6) - 5))</f>
+        <f t="shared" ref="N6:N11" si="1">TRIM(RIGHT($A6, LEN($A6) - FIND("Gypsum", $A6) - 5))</f>
         <v>12g</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
+      <c r="A7" t="s">
         <v>206</v>
       </c>
-      <c r="B7" s="3" t="str" cm="1">
+      <c r="B7" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B7" ca="1">IFERROR(INDIRECT("'" &amp; $A7 &amp; "'!A" &amp; COUNTA(INDIRECT("'" &amp; $A7 &amp; "'!A:A"))),"")</f>
         <v>11 / 13</v>
       </c>
-      <c r="C7" s="4" cm="1">
+      <c r="C7" s="1" cm="1">
         <f t="array" aca="1" ref="C7" ca="1">IFERROR(INDIRECT("'" &amp; $A7 &amp; "'!B" &amp; COUNTA(INDIRECT("'" &amp; $A7 &amp; "'!A:A"))),"")</f>
         <v>10.593636363636364</v>
       </c>
-      <c r="D7" s="4" cm="1">
+      <c r="D7" s="1" cm="1">
         <f t="array" aca="1" ref="D7" ca="1">IFERROR(INDIRECT("'" &amp; $A7 &amp; "'!C" &amp; COUNTA(INDIRECT("'" &amp; $A7 &amp; "'!A:A"))),"")</f>
         <v>14.370909090909093</v>
       </c>
-      <c r="E7" s="4" cm="1">
+      <c r="E7" s="1" cm="1">
         <f t="array" aca="1" ref="E7" ca="1">IFERROR(INDIRECT("'" &amp; $A7 &amp; "'!D" &amp; COUNTA(INDIRECT("'" &amp; $A7 &amp; "'!A:A"))),"")</f>
         <v>-30.700909090909082</v>
       </c>
-      <c r="F7" s="4" cm="1">
+      <c r="F7" s="1" cm="1">
         <f t="array" aca="1" ref="F7" ca="1">IFERROR(INDIRECT("'" &amp; $A7 &amp; "'!E" &amp; COUNTA(INDIRECT("'" &amp; $A7 &amp; "'!A:A"))),"")</f>
         <v>-7.2890909090909082</v>
       </c>
-      <c r="G7" s="4" cm="1">
+      <c r="G7" s="1" cm="1">
         <f t="array" aca="1" ref="G7" ca="1">IFERROR(INDIRECT("'" &amp; $A7 &amp; "'!F" &amp; COUNTA(INDIRECT("'" &amp; $A7 &amp; "'!A:A"))),"")</f>
         <v>12.902727272727274</v>
       </c>
-      <c r="H7" s="4" cm="1">
+      <c r="H7" s="1" cm="1">
         <f t="array" aca="1" ref="H7" ca="1">IFERROR(INDIRECT("'" &amp; $A7 &amp; "'!G" &amp; COUNTA(INDIRECT("'" &amp; $A7 &amp; "'!A:A"))),"")</f>
         <v>8.620000000000001</v>
       </c>
-      <c r="I7" s="4" cm="1">
+      <c r="I7" s="1" cm="1">
         <f t="array" aca="1" ref="I7" ca="1">IFERROR(INDIRECT("'" &amp; $A7 &amp; "'!H" &amp; COUNTA(INDIRECT("'" &amp; $A7 &amp; "'!A:A"))),"")</f>
         <v>4.6345454545454547</v>
       </c>
-      <c r="J7" s="4" cm="1">
+      <c r="J7" s="1" cm="1">
         <f t="array" aca="1" ref="J7" ca="1">IFERROR(INDIRECT("'" &amp; $A7 &amp; "'!I" &amp; COUNTA(INDIRECT("'" &amp; $A7 &amp; "'!A:A"))),"")</f>
         <v>23.893636363636368</v>
       </c>
-      <c r="K7" s="4" cm="1">
+      <c r="K7" s="1" cm="1">
         <f t="array" aca="1" ref="K7" ca="1">IFERROR(INDIRECT("'" &amp; $A7 &amp; "'!J" &amp; COUNTA(INDIRECT("'" &amp; $A7 &amp; "'!A:A"))),"")</f>
         <v>7.6554545454545462</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7">
         <f ca="1"/>
         <v>84.615384615384613</v>
       </c>
@@ -15135,50 +14967,50 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
+      <c r="A8" t="s">
         <v>207</v>
       </c>
-      <c r="B8" s="3" t="str" cm="1">
+      <c r="B8" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B8" ca="1">IFERROR(INDIRECT("'" &amp; $A8 &amp; "'!A" &amp; COUNTA(INDIRECT("'" &amp; $A8 &amp; "'!A:A"))),"")</f>
         <v>8 / 13</v>
       </c>
-      <c r="C8" s="4" cm="1">
+      <c r="C8" s="1" cm="1">
         <f t="array" aca="1" ref="C8" ca="1">IFERROR(INDIRECT("'" &amp; $A8 &amp; "'!B" &amp; COUNTA(INDIRECT("'" &amp; $A8 &amp; "'!A:A"))),"")</f>
         <v>9.6437500000000007</v>
       </c>
-      <c r="D8" s="4" cm="1">
+      <c r="D8" s="1" cm="1">
         <f t="array" aca="1" ref="D8" ca="1">IFERROR(INDIRECT("'" &amp; $A8 &amp; "'!C" &amp; COUNTA(INDIRECT("'" &amp; $A8 &amp; "'!A:A"))),"")</f>
         <v>13.6225</v>
       </c>
-      <c r="E8" s="4" cm="1">
+      <c r="E8" s="1" cm="1">
         <f t="array" aca="1" ref="E8" ca="1">IFERROR(INDIRECT("'" &amp; $A8 &amp; "'!D" &amp; COUNTA(INDIRECT("'" &amp; $A8 &amp; "'!A:A"))),"")</f>
         <v>-42.807499999999997</v>
       </c>
-      <c r="F8" s="4" cm="1">
+      <c r="F8" s="1" cm="1">
         <f t="array" aca="1" ref="F8" ca="1">IFERROR(INDIRECT("'" &amp; $A8 &amp; "'!E" &amp; COUNTA(INDIRECT("'" &amp; $A8 &amp; "'!A:A"))),"")</f>
         <v>-9.276250000000001</v>
       </c>
-      <c r="G8" s="4" cm="1">
+      <c r="G8" s="1" cm="1">
         <f t="array" aca="1" ref="G8" ca="1">IFERROR(INDIRECT("'" &amp; $A8 &amp; "'!F" &amp; COUNTA(INDIRECT("'" &amp; $A8 &amp; "'!A:A"))),"")</f>
         <v>10.58625</v>
       </c>
-      <c r="H8" s="4" cm="1">
+      <c r="H8" s="1" cm="1">
         <f t="array" aca="1" ref="H8" ca="1">IFERROR(INDIRECT("'" &amp; $A8 &amp; "'!G" &amp; COUNTA(INDIRECT("'" &amp; $A8 &amp; "'!A:A"))),"")</f>
         <v>8.6199999999999992</v>
       </c>
-      <c r="I8" s="4" cm="1">
+      <c r="I8" s="1" cm="1">
         <f t="array" aca="1" ref="I8" ca="1">IFERROR(INDIRECT("'" &amp; $A8 &amp; "'!H" &amp; COUNTA(INDIRECT("'" &amp; $A8 &amp; "'!A:A"))),"")</f>
         <v>3.8512499999999994</v>
       </c>
-      <c r="J8" s="4" cm="1">
+      <c r="J8" s="1" cm="1">
         <f t="array" aca="1" ref="J8" ca="1">IFERROR(INDIRECT("'" &amp; $A8 &amp; "'!I" &amp; COUNTA(INDIRECT("'" &amp; $A8 &amp; "'!A:A"))),"")</f>
         <v>21.327500000000001</v>
       </c>
-      <c r="K8" s="4" cm="1">
+      <c r="K8" s="1" cm="1">
         <f t="array" aca="1" ref="K8" ca="1">IFERROR(INDIRECT("'" &amp; $A8 &amp; "'!J" &amp; COUNTA(INDIRECT("'" &amp; $A8 &amp; "'!A:A"))),"")</f>
         <v>7.6899999999999995</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8">
         <f ca="1"/>
         <v>61.53846153846154</v>
       </c>
@@ -15188,50 +15020,50 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
+      <c r="A9" t="s">
         <v>208</v>
       </c>
-      <c r="B9" s="3" t="str" cm="1">
+      <c r="B9" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B9" ca="1">IFERROR(INDIRECT("'" &amp; $A9 &amp; "'!A" &amp; COUNTA(INDIRECT("'" &amp; $A9 &amp; "'!A:A"))),"")</f>
         <v>0 / 13</v>
       </c>
-      <c r="C9" s="4" t="str" cm="1">
+      <c r="C9" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="C9" ca="1">IFERROR(INDIRECT("'" &amp; $A9 &amp; "'!B" &amp; COUNTA(INDIRECT("'" &amp; $A9 &amp; "'!A:A"))),"")</f>
         <v/>
       </c>
-      <c r="D9" s="4" t="str" cm="1">
+      <c r="D9" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="D9" ca="1">IFERROR(INDIRECT("'" &amp; $A9 &amp; "'!C" &amp; COUNTA(INDIRECT("'" &amp; $A9 &amp; "'!A:A"))),"")</f>
         <v/>
       </c>
-      <c r="E9" s="4" t="str" cm="1">
+      <c r="E9" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="E9" ca="1">IFERROR(INDIRECT("'" &amp; $A9 &amp; "'!D" &amp; COUNTA(INDIRECT("'" &amp; $A9 &amp; "'!A:A"))),"")</f>
         <v/>
       </c>
-      <c r="F9" s="4" t="str" cm="1">
+      <c r="F9" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="F9" ca="1">IFERROR(INDIRECT("'" &amp; $A9 &amp; "'!E" &amp; COUNTA(INDIRECT("'" &amp; $A9 &amp; "'!A:A"))),"")</f>
         <v/>
       </c>
-      <c r="G9" s="4" t="str" cm="1">
+      <c r="G9" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="G9" ca="1">IFERROR(INDIRECT("'" &amp; $A9 &amp; "'!F" &amp; COUNTA(INDIRECT("'" &amp; $A9 &amp; "'!A:A"))),"")</f>
         <v/>
       </c>
-      <c r="H9" s="4" t="str" cm="1">
+      <c r="H9" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H9" ca="1">IFERROR(INDIRECT("'" &amp; $A9 &amp; "'!G" &amp; COUNTA(INDIRECT("'" &amp; $A9 &amp; "'!A:A"))),"")</f>
         <v/>
       </c>
-      <c r="I9" s="4" t="str" cm="1">
+      <c r="I9" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I9" ca="1">IFERROR(INDIRECT("'" &amp; $A9 &amp; "'!H" &amp; COUNTA(INDIRECT("'" &amp; $A9 &amp; "'!A:A"))),"")</f>
         <v/>
       </c>
-      <c r="J9" s="4" t="str" cm="1">
+      <c r="J9" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="J9" ca="1">IFERROR(INDIRECT("'" &amp; $A9 &amp; "'!I" &amp; COUNTA(INDIRECT("'" &amp; $A9 &amp; "'!A:A"))),"")</f>
         <v/>
       </c>
-      <c r="K9" s="4" t="str" cm="1">
+      <c r="K9" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K9" ca="1">IFERROR(INDIRECT("'" &amp; $A9 &amp; "'!J" &amp; COUNTA(INDIRECT("'" &amp; $A9 &amp; "'!A:A"))),"")</f>
         <v/>
       </c>
-      <c r="L9" s="2">
+      <c r="L9">
         <f ca="1"/>
         <v>0</v>
       </c>
@@ -15241,50 +15073,50 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
+      <c r="A10" t="s">
         <v>209</v>
       </c>
-      <c r="B10" s="3" t="str" cm="1">
+      <c r="B10" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B10" ca="1">IFERROR(INDIRECT("'" &amp; $A10 &amp; "'!A" &amp; COUNTA(INDIRECT("'" &amp; $A10 &amp; "'!A:A"))),"")</f>
         <v>0 / 14</v>
       </c>
-      <c r="C10" s="4" t="str" cm="1">
+      <c r="C10" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="C10" ca="1">IFERROR(INDIRECT("'" &amp; $A10 &amp; "'!B" &amp; COUNTA(INDIRECT("'" &amp; $A10 &amp; "'!A:A"))),"")</f>
         <v/>
       </c>
-      <c r="D10" s="4" t="str" cm="1">
+      <c r="D10" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="D10" ca="1">IFERROR(INDIRECT("'" &amp; $A10 &amp; "'!C" &amp; COUNTA(INDIRECT("'" &amp; $A10 &amp; "'!A:A"))),"")</f>
         <v/>
       </c>
-      <c r="E10" s="4" t="str" cm="1">
+      <c r="E10" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="E10" ca="1">IFERROR(INDIRECT("'" &amp; $A10 &amp; "'!D" &amp; COUNTA(INDIRECT("'" &amp; $A10 &amp; "'!A:A"))),"")</f>
         <v/>
       </c>
-      <c r="F10" s="4" t="str" cm="1">
+      <c r="F10" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="F10" ca="1">IFERROR(INDIRECT("'" &amp; $A10 &amp; "'!E" &amp; COUNTA(INDIRECT("'" &amp; $A10 &amp; "'!A:A"))),"")</f>
         <v/>
       </c>
-      <c r="G10" s="4" t="str" cm="1">
+      <c r="G10" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="G10" ca="1">IFERROR(INDIRECT("'" &amp; $A10 &amp; "'!F" &amp; COUNTA(INDIRECT("'" &amp; $A10 &amp; "'!A:A"))),"")</f>
         <v/>
       </c>
-      <c r="H10" s="4" t="str" cm="1">
+      <c r="H10" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H10" ca="1">IFERROR(INDIRECT("'" &amp; $A10 &amp; "'!G" &amp; COUNTA(INDIRECT("'" &amp; $A10 &amp; "'!A:A"))),"")</f>
         <v/>
       </c>
-      <c r="I10" s="4" t="str" cm="1">
+      <c r="I10" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I10" ca="1">IFERROR(INDIRECT("'" &amp; $A10 &amp; "'!H" &amp; COUNTA(INDIRECT("'" &amp; $A10 &amp; "'!A:A"))),"")</f>
         <v/>
       </c>
-      <c r="J10" s="4" t="str" cm="1">
+      <c r="J10" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="J10" ca="1">IFERROR(INDIRECT("'" &amp; $A10 &amp; "'!I" &amp; COUNTA(INDIRECT("'" &amp; $A10 &amp; "'!A:A"))),"")</f>
         <v/>
       </c>
-      <c r="K10" s="4" t="str" cm="1">
+      <c r="K10" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K10" ca="1">IFERROR(INDIRECT("'" &amp; $A10 &amp; "'!J" &amp; COUNTA(INDIRECT("'" &amp; $A10 &amp; "'!A:A"))),"")</f>
         <v/>
       </c>
-      <c r="L10" s="2">
+      <c r="L10">
         <f ca="1"/>
         <v>0</v>
       </c>
@@ -15294,50 +15126,50 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
+      <c r="A11" t="s">
         <v>210</v>
       </c>
-      <c r="B11" s="3" t="str" cm="1">
+      <c r="B11" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B11" ca="1">IFERROR(INDIRECT("'" &amp; $A11 &amp; "'!A" &amp; COUNTA(INDIRECT("'" &amp; $A11 &amp; "'!A:A"))),"")</f>
         <v>0 / 17</v>
       </c>
-      <c r="C11" s="4" t="str" cm="1">
+      <c r="C11" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="C11" ca="1">IFERROR(INDIRECT("'" &amp; $A11 &amp; "'!B" &amp; COUNTA(INDIRECT("'" &amp; $A11 &amp; "'!A:A"))),"")</f>
         <v/>
       </c>
-      <c r="D11" s="4" t="str" cm="1">
+      <c r="D11" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="D11" ca="1">IFERROR(INDIRECT("'" &amp; $A11 &amp; "'!C" &amp; COUNTA(INDIRECT("'" &amp; $A11 &amp; "'!A:A"))),"")</f>
         <v/>
       </c>
-      <c r="E11" s="4" t="str" cm="1">
+      <c r="E11" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="E11" ca="1">IFERROR(INDIRECT("'" &amp; $A11 &amp; "'!D" &amp; COUNTA(INDIRECT("'" &amp; $A11 &amp; "'!A:A"))),"")</f>
         <v/>
       </c>
-      <c r="F11" s="4" t="str" cm="1">
+      <c r="F11" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="F11" ca="1">IFERROR(INDIRECT("'" &amp; $A11 &amp; "'!E" &amp; COUNTA(INDIRECT("'" &amp; $A11 &amp; "'!A:A"))),"")</f>
         <v/>
       </c>
-      <c r="G11" s="4" t="str" cm="1">
+      <c r="G11" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="G11" ca="1">IFERROR(INDIRECT("'" &amp; $A11 &amp; "'!F" &amp; COUNTA(INDIRECT("'" &amp; $A11 &amp; "'!A:A"))),"")</f>
         <v/>
       </c>
-      <c r="H11" s="4" t="str" cm="1">
+      <c r="H11" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H11" ca="1">IFERROR(INDIRECT("'" &amp; $A11 &amp; "'!G" &amp; COUNTA(INDIRECT("'" &amp; $A11 &amp; "'!A:A"))),"")</f>
         <v/>
       </c>
-      <c r="I11" s="4" t="str" cm="1">
+      <c r="I11" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I11" ca="1">IFERROR(INDIRECT("'" &amp; $A11 &amp; "'!H" &amp; COUNTA(INDIRECT("'" &amp; $A11 &amp; "'!A:A"))),"")</f>
         <v/>
       </c>
-      <c r="J11" s="4" t="str" cm="1">
+      <c r="J11" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="J11" ca="1">IFERROR(INDIRECT("'" &amp; $A11 &amp; "'!I" &amp; COUNTA(INDIRECT("'" &amp; $A11 &amp; "'!A:A"))),"")</f>
         <v/>
       </c>
-      <c r="K11" s="4" t="str" cm="1">
+      <c r="K11" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K11" ca="1">IFERROR(INDIRECT("'" &amp; $A11 &amp; "'!J" &amp; COUNTA(INDIRECT("'" &amp; $A11 &amp; "'!A:A"))),"")</f>
         <v/>
       </c>
-      <c r="L11" s="2">
+      <c r="L11">
         <f ca="1"/>
         <v>0</v>
       </c>
@@ -15347,50 +15179,50 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
+      <c r="A12" t="s">
         <v>211</v>
       </c>
-      <c r="B12" s="3" t="str" cm="1">
+      <c r="B12" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B12" ca="1">IFERROR(INDIRECT("'" &amp; $A12 &amp; "'!A" &amp; COUNTA(INDIRECT("'" &amp; $A12 &amp; "'!A:A"))),"")</f>
         <v>4 / 6</v>
       </c>
-      <c r="C12" s="4" cm="1">
+      <c r="C12" s="1" cm="1">
         <f t="array" aca="1" ref="C12" ca="1">IFERROR(INDIRECT("'" &amp; $A12 &amp; "'!B" &amp; COUNTA(INDIRECT("'" &amp; $A12 &amp; "'!A:A"))),"")</f>
         <v>9.83</v>
       </c>
-      <c r="D12" s="4" cm="1">
+      <c r="D12" s="1" cm="1">
         <f t="array" aca="1" ref="D12" ca="1">IFERROR(INDIRECT("'" &amp; $A12 &amp; "'!C" &amp; COUNTA(INDIRECT("'" &amp; $A12 &amp; "'!A:A"))),"")</f>
         <v>14.6525</v>
       </c>
-      <c r="E12" s="4" cm="1">
+      <c r="E12" s="1" cm="1">
         <f t="array" aca="1" ref="E12" ca="1">IFERROR(INDIRECT("'" &amp; $A12 &amp; "'!D" &amp; COUNTA(INDIRECT("'" &amp; $A12 &amp; "'!A:A"))),"")</f>
         <v>5.8775000000000004</v>
       </c>
-      <c r="F12" s="4" cm="1">
+      <c r="F12" s="1" cm="1">
         <f t="array" aca="1" ref="F12" ca="1">IFERROR(INDIRECT("'" &amp; $A12 &amp; "'!E" &amp; COUNTA(INDIRECT("'" &amp; $A12 &amp; "'!A:A"))),"")</f>
         <v>3.9074999999999998</v>
       </c>
-      <c r="G12" s="4" cm="1">
+      <c r="G12" s="1" cm="1">
         <f t="array" aca="1" ref="G12" ca="1">IFERROR(INDIRECT("'" &amp; $A12 &amp; "'!F" &amp; COUNTA(INDIRECT("'" &amp; $A12 &amp; "'!A:A"))),"")</f>
         <v>18.837499999999999</v>
       </c>
-      <c r="H12" s="4" cm="1">
+      <c r="H12" s="1" cm="1">
         <f t="array" aca="1" ref="H12" ca="1">IFERROR(INDIRECT("'" &amp; $A12 &amp; "'!G" &amp; COUNTA(INDIRECT("'" &amp; $A12 &amp; "'!A:A"))),"")</f>
         <v>8.6199999999999992</v>
       </c>
-      <c r="I12" s="4" cm="1">
+      <c r="I12" s="1" cm="1">
         <f t="array" aca="1" ref="I12" ca="1">IFERROR(INDIRECT("'" &amp; $A12 &amp; "'!H" &amp; COUNTA(INDIRECT("'" &amp; $A12 &amp; "'!A:A"))),"")</f>
         <v>5.1775000000000002</v>
       </c>
-      <c r="J12" s="4" cm="1">
+      <c r="J12" s="1" cm="1">
         <f t="array" aca="1" ref="J12" ca="1">IFERROR(INDIRECT("'" &amp; $A12 &amp; "'!I" &amp; COUNTA(INDIRECT("'" &amp; $A12 &amp; "'!A:A"))),"")</f>
         <v>14.7875</v>
       </c>
-      <c r="K12" s="4" cm="1">
+      <c r="K12" s="1" cm="1">
         <f t="array" aca="1" ref="K12" ca="1">IFERROR(INDIRECT("'" &amp; $A12 &amp; "'!J" &amp; COUNTA(INDIRECT("'" &amp; $A12 &amp; "'!A:A"))),"")</f>
         <v>5.8774999999999995</v>
       </c>
-      <c r="L12" s="2">
+      <c r="L12">
         <f ca="1"/>
         <v>66.666666666666657</v>
       </c>
@@ -15400,103 +15232,103 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
+      <c r="A13" t="s">
         <v>212</v>
       </c>
-      <c r="B13" s="3" t="str" cm="1">
+      <c r="B13" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B13" ca="1">IFERROR(INDIRECT("'" &amp; $A13 &amp; "'!A" &amp; COUNTA(INDIRECT("'" &amp; $A13 &amp; "'!A:A"))),"")</f>
         <v>13 / 13</v>
       </c>
-      <c r="C13" s="4" cm="1">
+      <c r="C13" s="1" cm="1">
         <f t="array" aca="1" ref="C13" ca="1">IFERROR(INDIRECT("'" &amp; $A13 &amp; "'!B" &amp; COUNTA(INDIRECT("'" &amp; $A13 &amp; "'!A:A"))),"")</f>
         <v>10.067692307692308</v>
       </c>
-      <c r="D13" s="4" cm="1">
+      <c r="D13" s="1" cm="1">
         <f t="array" aca="1" ref="D13" ca="1">IFERROR(INDIRECT("'" &amp; $A13 &amp; "'!C" &amp; COUNTA(INDIRECT("'" &amp; $A13 &amp; "'!A:A"))),"")</f>
         <v>13.06076923076923</v>
       </c>
-      <c r="E13" s="4" cm="1">
+      <c r="E13" s="1" cm="1">
         <f t="array" aca="1" ref="E13" ca="1">IFERROR(INDIRECT("'" &amp; $A13 &amp; "'!D" &amp; COUNTA(INDIRECT("'" &amp; $A13 &amp; "'!A:A"))),"")</f>
         <v>-2.4230769230769229</v>
       </c>
-      <c r="F13" s="4" cm="1">
+      <c r="F13" s="1" cm="1">
         <f t="array" aca="1" ref="F13" ca="1">IFERROR(INDIRECT("'" &amp; $A13 &amp; "'!E" &amp; COUNTA(INDIRECT("'" &amp; $A13 &amp; "'!A:A"))),"")</f>
         <v>1.3699999999999999</v>
       </c>
-      <c r="G13" s="4" cm="1">
+      <c r="G13" s="1" cm="1">
         <f t="array" aca="1" ref="G13" ca="1">IFERROR(INDIRECT("'" &amp; $A13 &amp; "'!F" &amp; COUNTA(INDIRECT("'" &amp; $A13 &amp; "'!A:A"))),"")</f>
         <v>16.242307692307694</v>
       </c>
-      <c r="H13" s="4" cm="1">
+      <c r="H13" s="1" cm="1">
         <f t="array" aca="1" ref="H13" ca="1">IFERROR(INDIRECT("'" &amp; $A13 &amp; "'!G" &amp; COUNTA(INDIRECT("'" &amp; $A13 &amp; "'!A:A"))),"")</f>
         <v>8.620000000000001</v>
       </c>
-      <c r="I13" s="4" cm="1">
+      <c r="I13" s="1" cm="1">
         <f t="array" aca="1" ref="I13" ca="1">IFERROR(INDIRECT("'" &amp; $A13 &amp; "'!H" &amp; COUNTA(INDIRECT("'" &amp; $A13 &amp; "'!A:A"))),"")</f>
         <v>6.2415384615384601</v>
       </c>
-      <c r="J13" s="4" cm="1">
+      <c r="J13" s="1" cm="1">
         <f t="array" aca="1" ref="J13" ca="1">IFERROR(INDIRECT("'" &amp; $A13 &amp; "'!I" &amp; COUNTA(INDIRECT("'" &amp; $A13 &amp; "'!A:A"))),"")</f>
         <v>20.046923076923079</v>
       </c>
-      <c r="K13" s="4" cm="1">
+      <c r="K13" s="1" cm="1">
         <f t="array" aca="1" ref="K13" ca="1">IFERROR(INDIRECT("'" &amp; $A13 &amp; "'!J" &amp; COUNTA(INDIRECT("'" &amp; $A13 &amp; "'!A:A"))),"")</f>
         <v>6.8376923076923068</v>
       </c>
-      <c r="L13" s="2">
+      <c r="L13">
         <f ca="1"/>
         <v>100</v>
       </c>
       <c r="N13" t="str">
-        <f t="shared" ref="M13:N18" si="2">TRIM(RIGHT($A13, LEN($A13) - FIND("Spinach", $A13) - 6))</f>
+        <f t="shared" ref="N13:N18" si="2">TRIM(RIGHT($A13, LEN($A13) - FIND("Spinach", $A13) - 6))</f>
         <v>30g</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
+      <c r="A14" t="s">
         <v>213</v>
       </c>
-      <c r="B14" s="3" t="str" cm="1">
+      <c r="B14" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B14" ca="1">IFERROR(INDIRECT("'" &amp; $A14 &amp; "'!A" &amp; COUNTA(INDIRECT("'" &amp; $A14 &amp; "'!A:A"))),"")</f>
         <v>5 / 6</v>
       </c>
-      <c r="C14" s="4" cm="1">
+      <c r="C14" s="1" cm="1">
         <f t="array" aca="1" ref="C14" ca="1">IFERROR(INDIRECT("'" &amp; $A14 &amp; "'!B" &amp; COUNTA(INDIRECT("'" &amp; $A14 &amp; "'!A:A"))),"")</f>
         <v>11.936</v>
       </c>
-      <c r="D14" s="4" cm="1">
+      <c r="D14" s="1" cm="1">
         <f t="array" aca="1" ref="D14" ca="1">IFERROR(INDIRECT("'" &amp; $A14 &amp; "'!C" &amp; COUNTA(INDIRECT("'" &amp; $A14 &amp; "'!A:A"))),"")</f>
         <v>14.891999999999999</v>
       </c>
-      <c r="E14" s="4" cm="1">
+      <c r="E14" s="1" cm="1">
         <f t="array" aca="1" ref="E14" ca="1">IFERROR(INDIRECT("'" &amp; $A14 &amp; "'!D" &amp; COUNTA(INDIRECT("'" &amp; $A14 &amp; "'!A:A"))),"")</f>
         <v>-19.758000000000003</v>
       </c>
-      <c r="F14" s="4" cm="1">
+      <c r="F14" s="1" cm="1">
         <f t="array" aca="1" ref="F14" ca="1">IFERROR(INDIRECT("'" &amp; $A14 &amp; "'!E" &amp; COUNTA(INDIRECT("'" &amp; $A14 &amp; "'!A:A"))),"")</f>
         <v>4.3220000000000001</v>
       </c>
-      <c r="G14" s="4" cm="1">
+      <c r="G14" s="1" cm="1">
         <f t="array" aca="1" ref="G14" ca="1">IFERROR(INDIRECT("'" &amp; $A14 &amp; "'!F" &amp; COUNTA(INDIRECT("'" &amp; $A14 &amp; "'!A:A"))),"")</f>
         <v>9.1519999999999992</v>
       </c>
-      <c r="H14" s="4" cm="1">
+      <c r="H14" s="1" cm="1">
         <f t="array" aca="1" ref="H14" ca="1">IFERROR(INDIRECT("'" &amp; $A14 &amp; "'!G" &amp; COUNTA(INDIRECT("'" &amp; $A14 &amp; "'!A:A"))),"")</f>
         <v>8.6199999999999992</v>
       </c>
-      <c r="I14" s="4" cm="1">
+      <c r="I14" s="1" cm="1">
         <f t="array" aca="1" ref="I14" ca="1">IFERROR(INDIRECT("'" &amp; $A14 &amp; "'!H" &amp; COUNTA(INDIRECT("'" &amp; $A14 &amp; "'!A:A"))),"")</f>
         <v>6.7060000000000004</v>
       </c>
-      <c r="J14" s="4" cm="1">
+      <c r="J14" s="1" cm="1">
         <f t="array" aca="1" ref="J14" ca="1">IFERROR(INDIRECT("'" &amp; $A14 &amp; "'!I" &amp; COUNTA(INDIRECT("'" &amp; $A14 &amp; "'!A:A"))),"")</f>
         <v>10.358000000000001</v>
       </c>
-      <c r="K14" s="4" cm="1">
+      <c r="K14" s="1" cm="1">
         <f t="array" aca="1" ref="K14" ca="1">IFERROR(INDIRECT("'" &amp; $A14 &amp; "'!J" &amp; COUNTA(INDIRECT("'" &amp; $A14 &amp; "'!A:A"))),"")</f>
         <v>7.984</v>
       </c>
-      <c r="L14" s="2">
+      <c r="L14">
         <f ca="1"/>
         <v>83.333333333333343</v>
       </c>
@@ -15506,50 +15338,50 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
+      <c r="A15" t="s">
         <v>214</v>
       </c>
-      <c r="B15" s="3" t="str" cm="1">
+      <c r="B15" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B15" ca="1">IFERROR(INDIRECT("'" &amp; $A15 &amp; "'!A" &amp; COUNTA(INDIRECT("'" &amp; $A15 &amp; "'!A:A"))),"")</f>
         <v>5 / 8</v>
       </c>
-      <c r="C15" s="4" cm="1">
+      <c r="C15" s="1" cm="1">
         <f t="array" aca="1" ref="C15" ca="1">IFERROR(INDIRECT("'" &amp; $A15 &amp; "'!B" &amp; COUNTA(INDIRECT("'" &amp; $A15 &amp; "'!A:A"))),"")</f>
         <v>10.3</v>
       </c>
-      <c r="D15" s="4" cm="1">
+      <c r="D15" s="1" cm="1">
         <f t="array" aca="1" ref="D15" ca="1">IFERROR(INDIRECT("'" &amp; $A15 &amp; "'!C" &amp; COUNTA(INDIRECT("'" &amp; $A15 &amp; "'!A:A"))),"")</f>
         <v>11.405999999999999</v>
       </c>
-      <c r="E15" s="4" cm="1">
+      <c r="E15" s="1" cm="1">
         <f t="array" aca="1" ref="E15" ca="1">IFERROR(INDIRECT("'" &amp; $A15 &amp; "'!D" &amp; COUNTA(INDIRECT("'" &amp; $A15 &amp; "'!A:A"))),"")</f>
         <v>-39.384</v>
       </c>
-      <c r="F15" s="4" cm="1">
+      <c r="F15" s="1" cm="1">
         <f t="array" aca="1" ref="F15" ca="1">IFERROR(INDIRECT("'" &amp; $A15 &amp; "'!E" &amp; COUNTA(INDIRECT("'" &amp; $A15 &amp; "'!A:A"))),"")</f>
         <v>6.7520000000000024</v>
       </c>
-      <c r="G15" s="4" cm="1">
+      <c r="G15" s="1" cm="1">
         <f t="array" aca="1" ref="G15" ca="1">IFERROR(INDIRECT("'" &amp; $A15 &amp; "'!F" &amp; COUNTA(INDIRECT("'" &amp; $A15 &amp; "'!A:A"))),"")</f>
         <v>12.802000000000001</v>
       </c>
-      <c r="H15" s="4" cm="1">
+      <c r="H15" s="1" cm="1">
         <f t="array" aca="1" ref="H15" ca="1">IFERROR(INDIRECT("'" &amp; $A15 &amp; "'!G" &amp; COUNTA(INDIRECT("'" &amp; $A15 &amp; "'!A:A"))),"")</f>
         <v>8.6199999999999992</v>
       </c>
-      <c r="I15" s="4" cm="1">
+      <c r="I15" s="1" cm="1">
         <f t="array" aca="1" ref="I15" ca="1">IFERROR(INDIRECT("'" &amp; $A15 &amp; "'!H" &amp; COUNTA(INDIRECT("'" &amp; $A15 &amp; "'!A:A"))),"")</f>
         <v>4.01</v>
       </c>
-      <c r="J15" s="4" cm="1">
+      <c r="J15" s="1" cm="1">
         <f t="array" aca="1" ref="J15" ca="1">IFERROR(INDIRECT("'" &amp; $A15 &amp; "'!I" &amp; COUNTA(INDIRECT("'" &amp; $A15 &amp; "'!A:A"))),"")</f>
         <v>14.776</v>
       </c>
-      <c r="K15" s="4" cm="1">
+      <c r="K15" s="1" cm="1">
         <f t="array" aca="1" ref="K15" ca="1">IFERROR(INDIRECT("'" &amp; $A15 &amp; "'!J" &amp; COUNTA(INDIRECT("'" &amp; $A15 &amp; "'!A:A"))),"")</f>
         <v>6.1440000000000001</v>
       </c>
-      <c r="L15" s="2">
+      <c r="L15">
         <f ca="1"/>
         <v>62.5</v>
       </c>
@@ -15559,50 +15391,50 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
+      <c r="A16" t="s">
         <v>215</v>
       </c>
-      <c r="B16" s="3" t="str" cm="1">
+      <c r="B16" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B16" ca="1">IFERROR(INDIRECT("'" &amp; $A16 &amp; "'!A" &amp; COUNTA(INDIRECT("'" &amp; $A16 &amp; "'!A:A"))),"")</f>
         <v>0 / 7</v>
       </c>
-      <c r="C16" s="4" t="str" cm="1">
+      <c r="C16" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="C16" ca="1">IFERROR(INDIRECT("'" &amp; $A16 &amp; "'!B" &amp; COUNTA(INDIRECT("'" &amp; $A16 &amp; "'!A:A"))),"")</f>
         <v/>
       </c>
-      <c r="D16" s="4" t="str" cm="1">
+      <c r="D16" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="D16" ca="1">IFERROR(INDIRECT("'" &amp; $A16 &amp; "'!C" &amp; COUNTA(INDIRECT("'" &amp; $A16 &amp; "'!A:A"))),"")</f>
         <v/>
       </c>
-      <c r="E16" s="4" t="str" cm="1">
+      <c r="E16" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="E16" ca="1">IFERROR(INDIRECT("'" &amp; $A16 &amp; "'!D" &amp; COUNTA(INDIRECT("'" &amp; $A16 &amp; "'!A:A"))),"")</f>
         <v/>
       </c>
-      <c r="F16" s="4" t="str" cm="1">
+      <c r="F16" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="F16" ca="1">IFERROR(INDIRECT("'" &amp; $A16 &amp; "'!E" &amp; COUNTA(INDIRECT("'" &amp; $A16 &amp; "'!A:A"))),"")</f>
         <v/>
       </c>
-      <c r="G16" s="4" t="str" cm="1">
+      <c r="G16" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="G16" ca="1">IFERROR(INDIRECT("'" &amp; $A16 &amp; "'!F" &amp; COUNTA(INDIRECT("'" &amp; $A16 &amp; "'!A:A"))),"")</f>
         <v/>
       </c>
-      <c r="H16" s="4" t="str" cm="1">
+      <c r="H16" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H16" ca="1">IFERROR(INDIRECT("'" &amp; $A16 &amp; "'!G" &amp; COUNTA(INDIRECT("'" &amp; $A16 &amp; "'!A:A"))),"")</f>
         <v/>
       </c>
-      <c r="I16" s="4" t="str" cm="1">
+      <c r="I16" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I16" ca="1">IFERROR(INDIRECT("'" &amp; $A16 &amp; "'!H" &amp; COUNTA(INDIRECT("'" &amp; $A16 &amp; "'!A:A"))),"")</f>
         <v/>
       </c>
-      <c r="J16" s="4" t="str" cm="1">
+      <c r="J16" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="J16" ca="1">IFERROR(INDIRECT("'" &amp; $A16 &amp; "'!I" &amp; COUNTA(INDIRECT("'" &amp; $A16 &amp; "'!A:A"))),"")</f>
         <v/>
       </c>
-      <c r="K16" s="4" t="str" cm="1">
+      <c r="K16" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K16" ca="1">IFERROR(INDIRECT("'" &amp; $A16 &amp; "'!J" &amp; COUNTA(INDIRECT("'" &amp; $A16 &amp; "'!A:A"))),"")</f>
         <v/>
       </c>
-      <c r="L16" s="2">
+      <c r="L16">
         <f ca="1"/>
         <v>0</v>
       </c>
@@ -15612,50 +15444,50 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
+      <c r="A17" t="s">
         <v>216</v>
       </c>
-      <c r="B17" s="3" t="str" cm="1">
+      <c r="B17" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B17" ca="1">IFERROR(INDIRECT("'" &amp; $A17 &amp; "'!A" &amp; COUNTA(INDIRECT("'" &amp; $A17 &amp; "'!A:A"))),"")</f>
         <v>0 / 10</v>
       </c>
-      <c r="C17" s="4" t="str" cm="1">
+      <c r="C17" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="C17" ca="1">IFERROR(INDIRECT("'" &amp; $A17 &amp; "'!B" &amp; COUNTA(INDIRECT("'" &amp; $A17 &amp; "'!A:A"))),"")</f>
         <v/>
       </c>
-      <c r="D17" s="4" t="str" cm="1">
+      <c r="D17" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="D17" ca="1">IFERROR(INDIRECT("'" &amp; $A17 &amp; "'!C" &amp; COUNTA(INDIRECT("'" &amp; $A17 &amp; "'!A:A"))),"")</f>
         <v/>
       </c>
-      <c r="E17" s="4" t="str" cm="1">
+      <c r="E17" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="E17" ca="1">IFERROR(INDIRECT("'" &amp; $A17 &amp; "'!D" &amp; COUNTA(INDIRECT("'" &amp; $A17 &amp; "'!A:A"))),"")</f>
         <v/>
       </c>
-      <c r="F17" s="4" t="str" cm="1">
+      <c r="F17" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="F17" ca="1">IFERROR(INDIRECT("'" &amp; $A17 &amp; "'!E" &amp; COUNTA(INDIRECT("'" &amp; $A17 &amp; "'!A:A"))),"")</f>
         <v/>
       </c>
-      <c r="G17" s="4" t="str" cm="1">
+      <c r="G17" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="G17" ca="1">IFERROR(INDIRECT("'" &amp; $A17 &amp; "'!F" &amp; COUNTA(INDIRECT("'" &amp; $A17 &amp; "'!A:A"))),"")</f>
         <v/>
       </c>
-      <c r="H17" s="4" t="str" cm="1">
+      <c r="H17" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H17" ca="1">IFERROR(INDIRECT("'" &amp; $A17 &amp; "'!G" &amp; COUNTA(INDIRECT("'" &amp; $A17 &amp; "'!A:A"))),"")</f>
         <v/>
       </c>
-      <c r="I17" s="4" t="str" cm="1">
+      <c r="I17" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I17" ca="1">IFERROR(INDIRECT("'" &amp; $A17 &amp; "'!H" &amp; COUNTA(INDIRECT("'" &amp; $A17 &amp; "'!A:A"))),"")</f>
         <v/>
       </c>
-      <c r="J17" s="4" t="str" cm="1">
+      <c r="J17" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="J17" ca="1">IFERROR(INDIRECT("'" &amp; $A17 &amp; "'!I" &amp; COUNTA(INDIRECT("'" &amp; $A17 &amp; "'!A:A"))),"")</f>
         <v/>
       </c>
-      <c r="K17" s="4" t="str" cm="1">
+      <c r="K17" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K17" ca="1">IFERROR(INDIRECT("'" &amp; $A17 &amp; "'!J" &amp; COUNTA(INDIRECT("'" &amp; $A17 &amp; "'!A:A"))),"")</f>
         <v/>
       </c>
-      <c r="L17" s="2">
+      <c r="L17">
         <f ca="1"/>
         <v>0</v>
       </c>
@@ -15665,50 +15497,50 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
+      <c r="A18" t="s">
         <v>217</v>
       </c>
-      <c r="B18" s="3" t="str" cm="1">
+      <c r="B18" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B18" ca="1">IFERROR(INDIRECT("'" &amp; $A18 &amp; "'!A" &amp; COUNTA(INDIRECT("'" &amp; $A18 &amp; "'!A:A"))),"")</f>
         <v>0 / 8</v>
       </c>
-      <c r="C18" s="4" t="str" cm="1">
+      <c r="C18" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="C18" ca="1">IFERROR(INDIRECT("'" &amp; $A18 &amp; "'!B" &amp; COUNTA(INDIRECT("'" &amp; $A18 &amp; "'!A:A"))),"")</f>
         <v/>
       </c>
-      <c r="D18" s="4" t="str" cm="1">
+      <c r="D18" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="D18" ca="1">IFERROR(INDIRECT("'" &amp; $A18 &amp; "'!C" &amp; COUNTA(INDIRECT("'" &amp; $A18 &amp; "'!A:A"))),"")</f>
         <v/>
       </c>
-      <c r="E18" s="4" t="str" cm="1">
+      <c r="E18" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="E18" ca="1">IFERROR(INDIRECT("'" &amp; $A18 &amp; "'!D" &amp; COUNTA(INDIRECT("'" &amp; $A18 &amp; "'!A:A"))),"")</f>
         <v/>
       </c>
-      <c r="F18" s="4" t="str" cm="1">
+      <c r="F18" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="F18" ca="1">IFERROR(INDIRECT("'" &amp; $A18 &amp; "'!E" &amp; COUNTA(INDIRECT("'" &amp; $A18 &amp; "'!A:A"))),"")</f>
         <v/>
       </c>
-      <c r="G18" s="4" t="str" cm="1">
+      <c r="G18" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="G18" ca="1">IFERROR(INDIRECT("'" &amp; $A18 &amp; "'!F" &amp; COUNTA(INDIRECT("'" &amp; $A18 &amp; "'!A:A"))),"")</f>
         <v/>
       </c>
-      <c r="H18" s="4" t="str" cm="1">
+      <c r="H18" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="H18" ca="1">IFERROR(INDIRECT("'" &amp; $A18 &amp; "'!G" &amp; COUNTA(INDIRECT("'" &amp; $A18 &amp; "'!A:A"))),"")</f>
         <v/>
       </c>
-      <c r="I18" s="4" t="str" cm="1">
+      <c r="I18" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="I18" ca="1">IFERROR(INDIRECT("'" &amp; $A18 &amp; "'!H" &amp; COUNTA(INDIRECT("'" &amp; $A18 &amp; "'!A:A"))),"")</f>
         <v/>
       </c>
-      <c r="J18" s="4" t="str" cm="1">
+      <c r="J18" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="J18" ca="1">IFERROR(INDIRECT("'" &amp; $A18 &amp; "'!I" &amp; COUNTA(INDIRECT("'" &amp; $A18 &amp; "'!A:A"))),"")</f>
         <v/>
       </c>
-      <c r="K18" s="4" t="str" cm="1">
+      <c r="K18" s="1" t="str" cm="1">
         <f t="array" aca="1" ref="K18" ca="1">IFERROR(INDIRECT("'" &amp; $A18 &amp; "'!J" &amp; COUNTA(INDIRECT("'" &amp; $A18 &amp; "'!A:A"))),"")</f>
         <v/>
       </c>
-      <c r="L18" s="2">
+      <c r="L18">
         <f ca="1"/>
         <v>0</v>
       </c>
